--- a/prep/CW/cw_nutrients_trend_mse2019.xlsx
+++ b/prep/CW/cw_nutrients_trend_mse2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hurtadoyhurtado\carpeta compartida\PROYECTOS\CI IdSO MANABÍ Y SANTA ELENA\CAPAS DE DATOS\DATOS CRUDOS\AGUAS LIMPIAS\AGUAS LIMPIAS 2019\AGUAS LIMPIAS 2019\DATOS CRUDOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Documents\Github\mse\prep\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72306E8C-AEDB-4CE7-AF85-0EC7DCEBEA22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cw_nutrients_trendgl" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -174,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -572,7 +575,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -611,7 +614,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -700,7 +702,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -780,7 +781,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD08-4422-B9AA-68CECBAA9F3D}"/>
             </c:ext>
@@ -931,14 +932,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -974,7 +975,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1013,7 +1014,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,7 +1187,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A86A-4AE8-8620-CBD90DF7B3D6}"/>
             </c:ext>
@@ -1338,14 +1338,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1381,7 +1381,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1420,7 +1420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1509,7 +1508,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1589,7 +1587,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-61B8-4733-A6A3-CDB50BD7E615}"/>
             </c:ext>
@@ -1740,14 +1738,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1783,7 +1781,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1822,7 +1820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1996,7 +1993,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A36-40CB-8E8D-EB978DDFB45A}"/>
             </c:ext>
@@ -2147,14 +2144,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2190,7 +2187,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2229,7 +2226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2403,7 +2399,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8076-4C05-9D0E-5661BF8DA1FA}"/>
             </c:ext>
@@ -2554,14 +2550,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2597,7 +2593,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2636,7 +2632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2725,7 +2720,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2805,7 +2799,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8858-4189-90FB-6FFCB96AF830}"/>
             </c:ext>
@@ -2956,14 +2950,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2999,7 +2993,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3038,7 +3032,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3212,7 +3205,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4EC1-41AD-9046-51E2DEC80812}"/>
             </c:ext>
@@ -3363,14 +3356,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3406,7 +3399,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3445,7 +3438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3534,7 +3526,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3614,7 +3605,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5BF3-410C-8221-B741CBF56CA9}"/>
             </c:ext>
@@ -3765,14 +3756,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3808,7 +3799,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3847,7 +3838,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4021,7 +4011,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5136-497D-A43B-A9D1C39E438D}"/>
             </c:ext>
@@ -4172,14 +4162,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4215,7 +4205,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4254,7 +4244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4343,7 +4332,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4423,7 +4411,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6DDE-43FD-B010-86961CFDD6BC}"/>
             </c:ext>
@@ -4574,14 +4562,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4617,7 +4605,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4656,7 +4644,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4830,7 +4817,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9363-440E-B112-64C3A47B9FD0}"/>
             </c:ext>
@@ -4981,14 +4968,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5024,7 +5011,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5244,7 +5231,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6B4-4EFF-95CA-977F8B238795}"/>
             </c:ext>
@@ -5395,14 +5382,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5438,7 +5425,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5477,7 +5464,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5651,7 +5637,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-933F-4E07-8BFF-EB01CEF12857}"/>
             </c:ext>
@@ -5802,14 +5788,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5845,7 +5831,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5884,7 +5870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6058,7 +6043,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B4D-46FC-9AC7-EC422C6B6FFD}"/>
             </c:ext>
@@ -6209,14 +6194,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6252,7 +6237,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6291,7 +6276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6465,7 +6449,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-989C-4132-BB13-255599590109}"/>
             </c:ext>
@@ -6616,14 +6600,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6659,7 +6643,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6698,7 +6682,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6787,7 +6770,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6867,7 +6849,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4EE9-4B7D-8FC5-ED139BD1728A}"/>
             </c:ext>
@@ -7018,14 +7000,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7061,7 +7043,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7100,7 +7082,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7274,7 +7255,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D72-471E-9135-3FC97A321211}"/>
             </c:ext>
@@ -7425,14 +7406,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7468,7 +7449,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7507,7 +7488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7681,7 +7661,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FD9E-46C6-9BC1-CBDA4AA64BF8}"/>
             </c:ext>
@@ -7832,14 +7812,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7875,7 +7855,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7914,7 +7894,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8088,7 +8067,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0C3-4BF3-BEA1-173FB39A19FC}"/>
             </c:ext>
@@ -8239,14 +8218,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8282,7 +8261,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8321,7 +8300,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8495,7 +8473,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1467-4BA7-9E3D-747A75207304}"/>
             </c:ext>
@@ -8646,14 +8624,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8689,7 +8667,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8728,7 +8706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8902,7 +8879,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5028-4EB2-8501-8B6975FAD9F2}"/>
             </c:ext>
@@ -9053,14 +9030,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9096,7 +9073,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9135,7 +9112,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9309,7 +9285,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A1FD-4756-A647-DBC368E7D27D}"/>
             </c:ext>
@@ -9460,14 +9436,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -21754,7 +21730,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5C10CAD-B60E-419A-8EE8-6A0697583662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C10CAD-B60E-419A-8EE8-6A0697583662}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21790,7 +21766,7 @@
         <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E12221E6-8E6C-4A10-A333-99FE8FEDDB85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12221E6-8E6C-4A10-A333-99FE8FEDDB85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21826,7 +21802,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D664B1D5-CE98-4934-B759-55F37BD46EC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D664B1D5-CE98-4934-B759-55F37BD46EC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21862,7 +21838,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DABAE6DF-F4B3-48AA-87E0-854F9AAAAB38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABAE6DF-F4B3-48AA-87E0-854F9AAAAB38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21898,7 +21874,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{901BCA1A-8544-4076-BBEC-CE1B76C61D10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901BCA1A-8544-4076-BBEC-CE1B76C61D10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21934,7 +21910,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7642C71-5DE2-4C3A-BA0B-B9DDFD064F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7642C71-5DE2-4C3A-BA0B-B9DDFD064F95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21970,7 +21946,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{031709FE-2D1C-4E13-862E-4793574DA0E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031709FE-2D1C-4E13-862E-4793574DA0E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22006,7 +21982,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79FD8032-35D0-4698-8BC5-3FDB055A4315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FD8032-35D0-4698-8BC5-3FDB055A4315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22042,7 +22018,7 @@
         <xdr:cNvPr id="12" name="Gráfico 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAF2BE1E-538A-422D-A0E6-4E66BF8E1729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF2BE1E-538A-422D-A0E6-4E66BF8E1729}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22078,7 +22054,7 @@
         <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4687F1BC-1AAD-4FD5-9EC4-640394BDBA87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4687F1BC-1AAD-4FD5-9EC4-640394BDBA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22114,7 +22090,7 @@
         <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B3A6724-0004-402E-8773-79E226E25399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3A6724-0004-402E-8773-79E226E25399}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22150,7 +22126,7 @@
         <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFC87F3D-9402-4CAB-9B9A-26B7FEF886F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC87F3D-9402-4CAB-9B9A-26B7FEF886F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22186,7 +22162,7 @@
         <xdr:cNvPr id="26" name="Gráfico 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{488B318F-36E1-417D-ACFB-F98B3AF8437D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488B318F-36E1-417D-ACFB-F98B3AF8437D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22224,7 +22200,7 @@
         <xdr:cNvPr id="27" name="Gráfico 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{579D491A-30CD-4F9B-95D8-962F015FFC55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579D491A-30CD-4F9B-95D8-962F015FFC55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22262,7 +22238,7 @@
         <xdr:cNvPr id="28" name="Gráfico 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A4DE0B-791F-4B9B-84A5-791D6513B8CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A4DE0B-791F-4B9B-84A5-791D6513B8CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22300,7 +22276,7 @@
         <xdr:cNvPr id="29" name="Gráfico 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFE67B0F-D82D-458D-AC82-0C358C9527ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE67B0F-D82D-458D-AC82-0C358C9527ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22338,7 +22314,7 @@
         <xdr:cNvPr id="30" name="Gráfico 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E663344-A103-4964-9EAA-8518E2DD120B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E663344-A103-4964-9EAA-8518E2DD120B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22376,7 +22352,7 @@
         <xdr:cNvPr id="31" name="Gráfico 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2878152-0C77-4A97-8702-C209C1C61FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2878152-0C77-4A97-8702-C209C1C61FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22414,7 +22390,7 @@
         <xdr:cNvPr id="32" name="Gráfico 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{662C8E5B-8661-433B-9977-E8657A1ABBCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662C8E5B-8661-433B-9977-E8657A1ABBCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22452,7 +22428,7 @@
         <xdr:cNvPr id="33" name="Gráfico 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{321E72BC-9800-44F8-B747-7198D794A75C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321E72BC-9800-44F8-B747-7198D794A75C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22490,7 +22466,7 @@
         <xdr:cNvPr id="34" name="Gráfico 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{188E82AB-FD5D-47A9-9C91-134125926B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188E82AB-FD5D-47A9-9C91-134125926B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22528,7 +22504,7 @@
         <xdr:cNvPr id="35" name="Gráfico 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6672033-7A1E-48D2-8A30-DC366C9F9FF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6672033-7A1E-48D2-8A30-DC366C9F9FF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26893,7 +26869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -27093,7 +27069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29522,7 +29498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32273,10 +32249,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="R172" sqref="R172"/>
     </sheetView>
   </sheetViews>
@@ -33026,10 +33002,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -33148,8 +33126,7 @@
         <v>2014</v>
       </c>
       <c r="C10">
-        <f>'cw_nutrients_trend MSE'!K21</f>
-        <v>1.6940216490030879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
